--- a/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>95.283326792946056</v>
+        <v>95.283326792283319</v>
       </c>
       <c r="C2">
-        <v>93.131019357032329</v>
+        <v>93.131019361093948</v>
       </c>
       <c r="D2">
-        <v>95.579173158124519</v>
+        <v>95.579173160033164</v>
       </c>
       <c r="E2">
-        <v>94.195427155196512</v>
+        <v>94.195427152990561</v>
       </c>
       <c r="F2">
-        <v>96.172286868702457</v>
+        <v>96.172286868660308</v>
       </c>
       <c r="G2">
-        <v>95.914368498627653</v>
+        <v>95.914368503466335</v>
       </c>
       <c r="H2">
-        <v>94.955730671742373</v>
+        <v>94.955730678775723</v>
       </c>
       <c r="I2">
-        <v>95.682092402586846</v>
+        <v>95.682092401840563</v>
       </c>
       <c r="J2">
-        <v>93.964883952719902</v>
+        <v>93.964883951853921</v>
       </c>
       <c r="K2">
-        <v>95.951382673537367</v>
+        <v>95.951382675768045</v>
       </c>
       <c r="L2">
-        <v>99.042226927755024</v>
+        <v>99.042226939732942</v>
       </c>
       <c r="M2">
-        <v>92.511935558152004</v>
+        <v>92.511935564076055</v>
       </c>
       <c r="N2">
-        <v>95.557259542762097</v>
+        <v>95.557259547295061</v>
       </c>
       <c r="O2">
-        <v>93.9672827819508</v>
+        <v>93.967282776995887</v>
       </c>
       <c r="P2">
-        <v>94.480553669052057</v>
+        <v>94.480553674558848</v>
       </c>
       <c r="Q2">
-        <v>96.560164159100665</v>
+        <v>96.560164160706776</v>
       </c>
       <c r="R2">
-        <v>93.598494806308594</v>
+        <v>93.59849480056269</v>
       </c>
       <c r="S2">
-        <v>91.027750629449343</v>
+        <v>91.027750662305692</v>
       </c>
       <c r="T2">
-        <v>93.546572307591646</v>
+        <v>93.546572306267677</v>
       </c>
       <c r="U2">
-        <v>92.418240322028396</v>
+        <v>92.418240325387885</v>
       </c>
       <c r="V2">
-        <v>96.557536406249184</v>
+        <v>96.557536406648595</v>
       </c>
       <c r="W2">
-        <v>96.930556582554175</v>
+        <v>96.930556603962415</v>
       </c>
       <c r="X2">
-        <v>94.388296735991489</v>
+        <v>94.388296734249948</v>
       </c>
       <c r="Y2">
-        <v>90.869129239562909</v>
+        <v>90.869129243023622</v>
       </c>
       <c r="Z2">
-        <v>92.12820971947734</v>
+        <v>92.128209724338134</v>
       </c>
       <c r="AA2">
-        <v>94.075526243006522</v>
+        <v>94.075526225386767</v>
       </c>
       <c r="AB2">
-        <v>92.28434905224988</v>
+        <v>92.284349063840637</v>
       </c>
       <c r="AC2">
-        <v>96.123889090514609</v>
+        <v>96.123889099382467</v>
       </c>
       <c r="AD2">
-        <v>92.341514731963031</v>
+        <v>92.341514742229492</v>
       </c>
       <c r="AE2">
-        <v>97.092481197211839</v>
+        <v>97.092481197731516</v>
       </c>
       <c r="AF2">
-        <v>94.080209380524749</v>
+        <v>94.080209387688441</v>
       </c>
       <c r="AG2">
-        <v>96.236981970446749</v>
+        <v>96.236981979916365</v>
       </c>
       <c r="AH2">
-        <v>94.115053802247985</v>
+        <v>94.115053806857418</v>
       </c>
       <c r="AI2">
-        <v>91.847422835039154</v>
+        <v>91.847422874551242</v>
       </c>
       <c r="AJ2">
-        <v>95.421500262174803</v>
+        <v>95.421500270103351</v>
       </c>
       <c r="AK2">
-        <v>96.784121166100718</v>
+        <v>96.784121170445076</v>
       </c>
       <c r="AL2">
-        <v>93.490396783375004</v>
+        <v>93.490396791781677</v>
       </c>
       <c r="AM2">
-        <v>93.849075374909248</v>
+        <v>93.849075396126196</v>
       </c>
       <c r="AN2">
-        <v>94.821777748061294</v>
+        <v>94.821777757501053</v>
       </c>
       <c r="AO2">
-        <v>93.296518981144246</v>
+        <v>93.296518953142353</v>
       </c>
       <c r="AP2">
-        <v>93.145793143376721</v>
+        <v>93.145793149315722</v>
       </c>
       <c r="AQ2">
-        <v>95.112584160544884</v>
+        <v>95.112584176485967</v>
       </c>
       <c r="AR2">
-        <v>91.202642693613669</v>
+        <v>91.202642683861029</v>
       </c>
       <c r="AS2">
-        <v>94.165524624859515</v>
+        <v>94.165524640490332</v>
       </c>
       <c r="AT2">
-        <v>90.328132404794175</v>
+        <v>90.32813238340799</v>
       </c>
       <c r="AU2">
-        <v>94.646726854436736</v>
+        <v>94.646726866574753</v>
       </c>
       <c r="AV2">
-        <v>94.758751672983109</v>
+        <v>94.758751665808433</v>
       </c>
       <c r="AW2">
-        <v>93.864090504459142</v>
+        <v>93.864090530516094</v>
       </c>
       <c r="AX2">
-        <v>92.166306287257598</v>
+        <v>92.166306301694746</v>
       </c>
       <c r="AY2">
-        <v>91.223298145490062</v>
+        <v>91.223298155607196</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>94.507938214126284</v>
+        <v>94.507938244894504</v>
       </c>
       <c r="C3">
-        <v>95.558278769677116</v>
+        <v>95.558278771743659</v>
       </c>
       <c r="D3">
-        <v>92.050894354320704</v>
+        <v>92.050894375587859</v>
       </c>
       <c r="E3">
-        <v>92.756590982907611</v>
+        <v>92.756590986625966</v>
       </c>
       <c r="F3">
-        <v>96.622369870665054</v>
+        <v>96.62236987536609</v>
       </c>
       <c r="G3">
-        <v>93.492677929511331</v>
+        <v>93.492677933327329</v>
       </c>
       <c r="H3">
-        <v>97.584158473693492</v>
+        <v>97.584158471433909</v>
       </c>
       <c r="I3">
-        <v>93.679371192191724</v>
+        <v>93.679371194861332</v>
       </c>
       <c r="J3">
-        <v>92.478052089759444</v>
+        <v>92.478052100144382</v>
       </c>
       <c r="K3">
-        <v>90.340286701367319</v>
+        <v>90.340286702578425</v>
       </c>
       <c r="L3">
-        <v>95.63912457470127</v>
+        <v>95.639124580180408</v>
       </c>
       <c r="M3">
-        <v>93.597176960312922</v>
+        <v>93.597263719682303</v>
       </c>
       <c r="N3">
-        <v>94.174636239544199</v>
+        <v>94.174636240268143</v>
       </c>
       <c r="O3">
-        <v>95.424428486516291</v>
+        <v>95.424428487032273</v>
       </c>
       <c r="P3">
-        <v>93.472134393356995</v>
+        <v>93.472134402132625</v>
       </c>
       <c r="Q3">
-        <v>94.962002745822829</v>
+        <v>94.962002752484949</v>
       </c>
       <c r="R3">
-        <v>97.738090308132143</v>
+        <v>97.738090329780576</v>
       </c>
       <c r="S3">
-        <v>91.23686035641893</v>
+        <v>91.236860362614763</v>
       </c>
       <c r="T3">
-        <v>94.027140118764805</v>
+        <v>94.02714012412855</v>
       </c>
       <c r="U3">
-        <v>91.253325339205688</v>
+        <v>91.253325346286474</v>
       </c>
       <c r="V3">
-        <v>94.32772443365927</v>
+        <v>94.327724432258307</v>
       </c>
       <c r="W3">
-        <v>94.454505431844737</v>
+        <v>94.454505441255264</v>
       </c>
       <c r="X3">
-        <v>94.528485343066578</v>
+        <v>94.528485346487855</v>
       </c>
       <c r="Y3">
-        <v>88.667748291887165</v>
+        <v>88.667748302671114</v>
       </c>
       <c r="Z3">
-        <v>89.77977977568149</v>
+        <v>89.779779780275305</v>
       </c>
       <c r="AA3">
-        <v>94.840629977816121</v>
+        <v>94.840629974263763</v>
       </c>
       <c r="AB3">
-        <v>93.753418047949438</v>
+        <v>93.75341805828262</v>
       </c>
       <c r="AC3">
-        <v>95.96932135746485</v>
+        <v>95.969321381717393</v>
       </c>
       <c r="AD3">
-        <v>93.277943693442211</v>
+        <v>93.277943721372083</v>
       </c>
       <c r="AE3">
-        <v>96.387369216914649</v>
+        <v>96.387369238540842</v>
       </c>
       <c r="AF3">
-        <v>94.746118964525948</v>
+        <v>94.746118979043075</v>
       </c>
       <c r="AG3">
-        <v>96.128775484710914</v>
+        <v>96.128775492887698</v>
       </c>
       <c r="AH3">
-        <v>93.757907079805562</v>
+        <v>93.757907085695436</v>
       </c>
       <c r="AI3">
-        <v>89.577827916225743</v>
+        <v>89.577828154198158</v>
       </c>
       <c r="AJ3">
-        <v>95.932297019912255</v>
+        <v>95.932297037044336</v>
       </c>
       <c r="AK3">
-        <v>97.438322476993989</v>
+        <v>97.43832251079003</v>
       </c>
       <c r="AL3">
-        <v>93.055759048350893</v>
+        <v>93.055759061500609</v>
       </c>
       <c r="AM3">
-        <v>92.153541446623663</v>
+        <v>92.153541463218403</v>
       </c>
       <c r="AN3">
-        <v>96.838861873019979</v>
+        <v>96.838861877621369</v>
       </c>
       <c r="AO3">
-        <v>93.769097214819482</v>
+        <v>93.769097255291186</v>
       </c>
       <c r="AP3">
-        <v>95.045460722435195</v>
+        <v>95.045460729316957</v>
       </c>
       <c r="AQ3">
-        <v>95.312282450638904</v>
+        <v>95.312282458501414</v>
       </c>
       <c r="AR3">
-        <v>90.99181159415221</v>
+        <v>90.991811584450971</v>
       </c>
       <c r="AS3">
-        <v>97.037386548029332</v>
+        <v>97.037386544665864</v>
       </c>
       <c r="AT3">
-        <v>90.384728732530121</v>
+        <v>90.384728750424031</v>
       </c>
       <c r="AU3">
-        <v>97.075781939284298</v>
+        <v>97.075781958959823</v>
       </c>
       <c r="AV3">
-        <v>95.988219100497119</v>
+        <v>95.988219120364533</v>
       </c>
       <c r="AW3">
-        <v>95.513874806710049</v>
+        <v>95.513875004486124</v>
       </c>
       <c r="AX3">
-        <v>93.90257962420408</v>
+        <v>93.902579672734007</v>
       </c>
       <c r="AY3">
-        <v>89.216285613723855</v>
+        <v>89.216285623681273</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_trial_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>95.283326792283319</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>93.131019361093948</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>95.579173160033164</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>94.195427152990561</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>96.172286868660308</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>95.914368503466335</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>94.955730678775723</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>95.682092401840563</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>93.964883951853921</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>95.951382675768045</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>99.042226939732942</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>92.511935564076055</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>95.557259547295061</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>93.967282776995887</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>94.480553674558848</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>96.560164160706776</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>93.59849480056269</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>91.027750662305692</v>
+        <v>92.696292583305066</v>
       </c>
       <c r="T2">
         <v>93.546572306267677</v>
@@ -588,55 +477,55 @@
         <v>92.128209724338134</v>
       </c>
       <c r="AA2">
-        <v>94.075526225386767</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>92.284349063840637</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>96.123889099382467</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>92.341514742229492</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>97.092481197731516</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>94.080209387688441</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>96.236981979916365</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>94.115053806857418</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>91.847422874551242</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>95.421500270103351</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>96.784121170445076</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>93.490396791781677</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>93.849075396126196</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>94.821777757501053</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>93.296518953142353</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>93.145793149315722</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>95.112584176485967</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>91.202642683861029</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>94.507938244894504</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>95.558278771743659</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>92.050894375587859</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>92.756590986625966</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>96.62236987536609</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>93.492677933327329</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>97.584158471433909</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>93.679371194861332</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>92.478052100144382</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>90.340286702578425</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>95.639124580180408</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>93.597263719682303</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>94.174636240268143</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>95.424428487032273</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>93.472134402132625</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>94.962002752484949</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>97.738090329780576</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>91.236860362614763</v>
@@ -743,55 +629,55 @@
         <v>89.779779780275305</v>
       </c>
       <c r="AA3">
-        <v>94.840629974263763</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>93.75341805828262</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>95.969321381717393</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>93.277943721372083</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>96.387369238540842</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>94.746118979043075</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>96.128775492887698</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>93.757907085695436</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>89.577828154198158</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>95.932297037044336</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>97.43832251079003</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>93.055759061500609</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>92.153541463218403</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>96.838861877621369</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>93.769097255291186</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>95.045460729316957</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>95.312282458501414</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>90.991811584450971</v>

--- a/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>95.283326792946056</v>
+        <v>93.967282776995887</v>
       </c>
       <c r="C2">
-        <v>93.656741715248188</v>
+        <v>93.59849480056269</v>
       </c>
       <c r="D2">
-        <v>95.579173158124519</v>
+        <v>94.821777757501053</v>
       </c>
       <c r="E2">
-        <v>94.195427155196512</v>
+        <v>95.112584176485967</v>
       </c>
       <c r="F2">
         <v>96.172286868702457</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>94.507938214126284</v>
+        <v>94.067146827857201</v>
       </c>
       <c r="C3">
-        <v>95.558278769677116</v>
+        <v>97.738090329780576</v>
       </c>
       <c r="D3">
-        <v>92.050894354320704</v>
+        <v>96.43580666409791</v>
       </c>
       <c r="E3">
-        <v>92.756590982907611</v>
+        <v>95.275056922025485</v>
       </c>
       <c r="F3">
         <v>96.622369870665054</v>

--- a/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_trial_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>95.283326792946056</v>
+        <v>95.695904314898485</v>
       </c>
       <c r="C2">
-        <v>93.656741715248188</v>
+        <v>93.967282776995887</v>
       </c>
       <c r="D2">
-        <v>95.579173158124519</v>
+        <v>93.849075396126196</v>
       </c>
       <c r="E2">
-        <v>94.195427155196512</v>
+        <v>94.821777757501053</v>
       </c>
       <c r="F2">
         <v>96.172286868702457</v>
@@ -670,16 +665,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>94.507938214126284</v>
+        <v>94.174636240268143</v>
       </c>
       <c r="C3">
-        <v>95.558278769677116</v>
+        <v>94.067146827857201</v>
       </c>
       <c r="D3">
-        <v>92.050894354320704</v>
+        <v>92.153541463218403</v>
       </c>
       <c r="E3">
-        <v>91.566047033005447</v>
+        <v>96.43580666409791</v>
       </c>
       <c r="F3">
         <v>96.622369870665054</v>

--- a/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_trial_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,151 +513,151 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>95.283326792283319</v>
+      </c>
+      <c r="C2">
+        <v>93.656741731090548</v>
+      </c>
+      <c r="D2">
+        <v>95.579173160033164</v>
+      </c>
+      <c r="E2">
+        <v>94.195427152990561</v>
+      </c>
+      <c r="F2">
+        <v>96.172286868660308</v>
+      </c>
+      <c r="G2">
+        <v>94.972687637125574</v>
+      </c>
+      <c r="H2">
+        <v>94.955730678775723</v>
+      </c>
+      <c r="I2">
+        <v>94.817339117282174</v>
+      </c>
+      <c r="J2">
+        <v>93.964883951853921</v>
+      </c>
+      <c r="K2">
+        <v>95.951382675768045</v>
+      </c>
+      <c r="L2">
+        <v>98.396279898335408</v>
+      </c>
+      <c r="M2">
+        <v>91.117484324337568</v>
+      </c>
+      <c r="N2">
         <v>95.695904314898485</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>93.967282776995887</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>94.159570712286296</v>
+      </c>
+      <c r="Q2">
+        <v>96.560164160706776</v>
+      </c>
+      <c r="R2">
+        <v>93.59849480056269</v>
+      </c>
+      <c r="T2">
+        <v>94.105633300186383</v>
+      </c>
+      <c r="U2">
+        <v>92.418240325387885</v>
+      </c>
+      <c r="V2">
+        <v>95.88717326351653</v>
+      </c>
+      <c r="W2">
+        <v>96.930556603962415</v>
+      </c>
+      <c r="X2">
+        <v>94.388296734249948</v>
+      </c>
+      <c r="Y2">
+        <v>90.869129243023622</v>
+      </c>
+      <c r="Z2">
+        <v>92.128209724338134</v>
+      </c>
+      <c r="AA2">
+        <v>94.075526225386767</v>
+      </c>
+      <c r="AB2">
+        <v>92.284349063840637</v>
+      </c>
+      <c r="AC2">
+        <v>96.123889099382467</v>
+      </c>
+      <c r="AD2">
+        <v>92.341514742229492</v>
+      </c>
+      <c r="AE2">
+        <v>97.092481197731516</v>
+      </c>
+      <c r="AF2">
+        <v>94.080209387688441</v>
+      </c>
+      <c r="AG2">
+        <v>96.236981979916365</v>
+      </c>
+      <c r="AH2">
+        <v>94.115053806857418</v>
+      </c>
+      <c r="AI2">
+        <v>91.847422874551242</v>
+      </c>
+      <c r="AJ2">
+        <v>95.421500270103351</v>
+      </c>
+      <c r="AK2">
+        <v>96.784121170445076</v>
+      </c>
+      <c r="AL2">
+        <v>93.490396791781677</v>
+      </c>
+      <c r="AM2">
         <v>93.849075396126196</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>94.821777757501053</v>
       </c>
-      <c r="F2">
-        <v>96.172286868702457</v>
-      </c>
-      <c r="G2">
-        <v>94.972687622938736</v>
-      </c>
-      <c r="H2">
-        <v>94.955730671742373</v>
-      </c>
-      <c r="I2">
-        <v>94.817339119378858</v>
-      </c>
-      <c r="J2">
-        <v>93.964883952719902</v>
-      </c>
-      <c r="K2">
-        <v>95.951382673537367</v>
-      </c>
-      <c r="L2">
-        <v>98.396279828736127</v>
-      </c>
-      <c r="M2">
-        <v>91.117484322658242</v>
-      </c>
-      <c r="N2">
-        <v>95.695904308139163</v>
-      </c>
-      <c r="O2">
-        <v>93.9672827819508</v>
-      </c>
-      <c r="P2">
-        <v>94.15957070351952</v>
-      </c>
-      <c r="Q2">
-        <v>96.560164159100665</v>
-      </c>
-      <c r="R2">
-        <v>93.598494806308594</v>
-      </c>
-      <c r="T2">
-        <v>94.105633301641888</v>
-      </c>
-      <c r="U2">
-        <v>92.418240322028396</v>
-      </c>
-      <c r="V2">
-        <v>95.887173261866437</v>
-      </c>
-      <c r="W2">
-        <v>96.930556582554175</v>
-      </c>
-      <c r="X2">
-        <v>94.388296735991489</v>
-      </c>
-      <c r="Y2">
-        <v>90.869129239562909</v>
-      </c>
-      <c r="Z2">
-        <v>92.12820971947734</v>
-      </c>
-      <c r="AA2">
-        <v>94.075526243006522</v>
-      </c>
-      <c r="AB2">
-        <v>92.28434905224988</v>
-      </c>
-      <c r="AC2">
-        <v>96.123889090514609</v>
-      </c>
-      <c r="AD2">
-        <v>92.341514731963031</v>
-      </c>
-      <c r="AE2">
-        <v>97.092481197211839</v>
-      </c>
-      <c r="AF2">
-        <v>94.080209380524749</v>
-      </c>
-      <c r="AG2">
-        <v>96.236981970446749</v>
-      </c>
-      <c r="AH2">
-        <v>94.115053802247985</v>
-      </c>
-      <c r="AI2">
-        <v>91.847422835039154</v>
-      </c>
-      <c r="AJ2">
-        <v>95.421500262174803</v>
-      </c>
-      <c r="AK2">
-        <v>96.784121166100718</v>
-      </c>
-      <c r="AL2">
-        <v>93.490396783375004</v>
-      </c>
-      <c r="AM2">
-        <v>93.849075374909248</v>
-      </c>
-      <c r="AN2">
-        <v>94.821777748061294</v>
-      </c>
       <c r="AO2">
-        <v>93.296518981144246</v>
+        <v>93.296518953142353</v>
       </c>
       <c r="AP2">
-        <v>92.719452279826513</v>
+        <v>92.719452287639697</v>
       </c>
       <c r="AQ2">
-        <v>95.112584160544884</v>
+        <v>95.112584176485967</v>
       </c>
       <c r="AR2">
-        <v>91.202642693613669</v>
+        <v>91.202642683861029</v>
       </c>
       <c r="AS2">
-        <v>94.165524624859515</v>
+        <v>94.165524640490332</v>
       </c>
       <c r="AT2">
-        <v>90.328132404794175</v>
+        <v>90.32813238340799</v>
       </c>
       <c r="AU2">
-        <v>95.867107861544284</v>
+        <v>95.867107888639097</v>
       </c>
       <c r="AV2">
-        <v>94.758751672983109</v>
+        <v>94.758751665808433</v>
       </c>
       <c r="AW2">
-        <v>93.864090504459142</v>
+        <v>93.864090530516094</v>
       </c>
       <c r="AX2">
-        <v>92.166306287257598</v>
+        <v>92.166306301694746</v>
       </c>
       <c r="AY2">
-        <v>91.223298145490062</v>
+        <v>91.223298155607196</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -665,154 +665,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>94.507938244894504</v>
+      </c>
+      <c r="C3">
+        <v>95.558278771743659</v>
+      </c>
+      <c r="D3">
+        <v>92.050894375587859</v>
+      </c>
+      <c r="E3">
+        <v>91.566047041210609</v>
+      </c>
+      <c r="F3">
+        <v>96.62236987536609</v>
+      </c>
+      <c r="G3">
+        <v>93.492677933327329</v>
+      </c>
+      <c r="H3">
+        <v>97.584158471433909</v>
+      </c>
+      <c r="I3">
+        <v>93.679371194861332</v>
+      </c>
+      <c r="J3">
+        <v>92.478052100144382</v>
+      </c>
+      <c r="K3">
+        <v>90.565874907036786</v>
+      </c>
+      <c r="L3">
+        <v>95.639124580180408</v>
+      </c>
+      <c r="M3">
+        <v>94.26033932266941</v>
+      </c>
+      <c r="N3">
         <v>94.174636240268143</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>94.067146827857201</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>93.472134402132625</v>
+      </c>
+      <c r="Q3">
+        <v>94.962002752484949</v>
+      </c>
+      <c r="R3">
+        <v>97.738090329780576</v>
+      </c>
+      <c r="S3">
+        <v>91.236860362614763</v>
+      </c>
+      <c r="T3">
+        <v>94.02714012412855</v>
+      </c>
+      <c r="U3">
+        <v>91.253325346286474</v>
+      </c>
+      <c r="V3">
+        <v>93.959913650308408</v>
+      </c>
+      <c r="W3">
+        <v>94.457293546226566</v>
+      </c>
+      <c r="X3">
+        <v>94.528485346487855</v>
+      </c>
+      <c r="Y3">
+        <v>88.667748302671114</v>
+      </c>
+      <c r="Z3">
+        <v>89.779779780275305</v>
+      </c>
+      <c r="AA3">
+        <v>94.840629974263763</v>
+      </c>
+      <c r="AB3">
+        <v>93.75341805828262</v>
+      </c>
+      <c r="AC3">
+        <v>95.969321381717393</v>
+      </c>
+      <c r="AD3">
+        <v>93.277943721372083</v>
+      </c>
+      <c r="AE3">
+        <v>96.387369238540842</v>
+      </c>
+      <c r="AF3">
+        <v>94.746118979043075</v>
+      </c>
+      <c r="AG3">
+        <v>96.128775492887698</v>
+      </c>
+      <c r="AH3">
+        <v>93.757907085695436</v>
+      </c>
+      <c r="AI3">
+        <v>94.632397690979019</v>
+      </c>
+      <c r="AJ3">
+        <v>95.932297037044336</v>
+      </c>
+      <c r="AK3">
+        <v>97.43832251079003</v>
+      </c>
+      <c r="AL3">
+        <v>93.055759061500609</v>
+      </c>
+      <c r="AM3">
         <v>92.153541463218403</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>96.43580666409791</v>
       </c>
-      <c r="F3">
-        <v>96.622369870665054</v>
-      </c>
-      <c r="G3">
-        <v>93.492677929511331</v>
-      </c>
-      <c r="H3">
-        <v>97.584158473693492</v>
-      </c>
-      <c r="I3">
-        <v>93.679371192191724</v>
-      </c>
-      <c r="J3">
-        <v>92.478052089759444</v>
-      </c>
-      <c r="K3">
-        <v>90.56587490651755</v>
-      </c>
-      <c r="L3">
-        <v>95.63912457470127</v>
-      </c>
-      <c r="M3">
-        <v>94.260302186343978</v>
-      </c>
-      <c r="N3">
-        <v>94.174636239544199</v>
-      </c>
-      <c r="O3">
-        <v>94.06714682742502</v>
-      </c>
-      <c r="P3">
-        <v>93.472134393356995</v>
-      </c>
-      <c r="Q3">
-        <v>94.962002745822829</v>
-      </c>
-      <c r="R3">
-        <v>97.738090308132143</v>
-      </c>
-      <c r="S3">
-        <v>91.23686035641893</v>
-      </c>
-      <c r="T3">
-        <v>94.027140118764805</v>
-      </c>
-      <c r="U3">
-        <v>91.253325339205688</v>
-      </c>
-      <c r="V3">
-        <v>93.959913678366718</v>
-      </c>
-      <c r="W3">
-        <v>94.457293545254601</v>
-      </c>
-      <c r="X3">
-        <v>94.528485343066578</v>
-      </c>
-      <c r="Y3">
-        <v>88.667748291887165</v>
-      </c>
-      <c r="Z3">
-        <v>89.77977977568149</v>
-      </c>
-      <c r="AA3">
-        <v>94.840629977816121</v>
-      </c>
-      <c r="AB3">
-        <v>93.753418047949438</v>
-      </c>
-      <c r="AC3">
-        <v>95.96932135746485</v>
-      </c>
-      <c r="AD3">
-        <v>93.277943693442211</v>
-      </c>
-      <c r="AE3">
-        <v>96.387369216914649</v>
-      </c>
-      <c r="AF3">
-        <v>94.746118964525948</v>
-      </c>
-      <c r="AG3">
-        <v>96.128775484710914</v>
-      </c>
-      <c r="AH3">
-        <v>93.757907079805562</v>
-      </c>
-      <c r="AI3">
-        <v>94.632397643051988</v>
-      </c>
-      <c r="AJ3">
-        <v>95.932297019912255</v>
-      </c>
-      <c r="AK3">
-        <v>97.438322476993989</v>
-      </c>
-      <c r="AL3">
-        <v>93.055759048350893</v>
-      </c>
-      <c r="AM3">
-        <v>92.153541446623663</v>
-      </c>
-      <c r="AN3">
-        <v>96.435806660723742</v>
-      </c>
       <c r="AO3">
-        <v>93.769097214819482</v>
+        <v>93.769097255291186</v>
       </c>
       <c r="AP3">
-        <v>95.045460722435195</v>
+        <v>95.045460729316957</v>
       </c>
       <c r="AQ3">
-        <v>95.275056916779391</v>
+        <v>95.275056922025485</v>
       </c>
       <c r="AR3">
-        <v>90.99181159415221</v>
+        <v>90.991811584450971</v>
       </c>
       <c r="AS3">
-        <v>97.037386548029332</v>
+        <v>97.037386544665864</v>
       </c>
       <c r="AT3">
-        <v>90.384728732530121</v>
+        <v>90.384728750424031</v>
       </c>
       <c r="AU3">
-        <v>96.896355595186606</v>
+        <v>96.896355649531202</v>
       </c>
       <c r="AV3">
-        <v>95.988219100497119</v>
+        <v>95.988219120364533</v>
       </c>
       <c r="AW3">
-        <v>95.513874806710049</v>
+        <v>95.513875004486124</v>
       </c>
       <c r="AX3">
-        <v>93.90257962420408</v>
+        <v>93.902579672734007</v>
       </c>
       <c r="AY3">
-        <v>89.216285613723855</v>
+        <v>89.216285623681273</v>
       </c>
     </row>
   </sheetData>
